--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KENIL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50E63A0-9D5C-4CE5-8D8E-1D485042DBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7D8A85-951A-4FD9-BF96-EE33F6E4CF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="13" xr2:uid="{3EE8CFF4-FDCD-426E-A299-3052808182D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="10" xr2:uid="{3EE8CFF4-FDCD-426E-A299-3052808182D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Address" sheetId="11" r:id="rId1"/>
@@ -338,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -353,9 +353,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -855,7 +852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1316EAF6-255F-4B32-8964-29BE86C74F66}">
   <dimension ref="D4:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6:F6"/>
     </sheetView>
   </sheetViews>
@@ -1049,7 +1046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9385F7A8-00C7-49BB-93D0-9EC4B8907F80}">
   <dimension ref="D4:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -1544,7 +1541,7 @@
   <dimension ref="D4:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:F17"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1695,7 +1692,7 @@
   <dimension ref="D4:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:F4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1713,46 +1710,46 @@
       <c r="F4" s="5"/>
     </row>
     <row r="6" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>31</v>
       </c>
     </row>
